--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -9,26 +9,24 @@
     <sheet state="visible" name="Cargo_Microvalid_ServiceCutter" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Acme_Semantics" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Petclinic_Semantics" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Metrics_Microvalid_Mazlami" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Petclinic_Microvalid_Mazlami" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Petclinic_Microvalid_Service_Cu" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Petclinic_Enhanced_Semantics" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Petclinic_Enhanced_Microvalid" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Petclinic_Microvalid_Mazlami" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Petclinic_Microvalid_Service_Cu" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Petclinic_Enhanced_Semantics" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Petclinic_Enhanced_Microvalid" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Cargo_Semantics!$A$1:$A$1004</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Cargo_Microvalid_Mazlami!$C$1:$C$1000</definedName>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">Acme_Semantics!$C$1:$C$1003</definedName>
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">Petclinic_Semantics!$C$1:$C$1000</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">Metrics_Microvalid_Mazlami!$A$1:$H$16</definedName>
-    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">Petclinic_Microvalid_Mazlami!$E$1:$E$1001</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">Petclinic_Microvalid_Mazlami!$A$1:$H$16</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="38">
   <si>
     <t>Application</t>
   </si>
@@ -142,9 +140,6 @@
   </si>
   <si>
     <t>CohesionChecker is AVG of semantic and entities composition test</t>
-  </si>
-  <si>
-    <t>Petclinic CohesionChecker</t>
   </si>
 </sst>
 </file>
@@ -274,10 +269,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1434,20 +1425,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="5" max="5" width="20.38"/>
     <col customWidth="1" min="6" max="6" width="17.13"/>
@@ -4582,8 +4559,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="16.13"/>
-    <col customWidth="1" min="8" max="8" width="26.0"/>
+    <col customWidth="1" min="2" max="2" width="18.5"/>
+    <col customWidth="1" min="3" max="3" width="24.63"/>
+    <col customWidth="1" min="4" max="4" width="28.63"/>
+    <col customWidth="1" min="5" max="5" width="27.5"/>
+    <col customWidth="1" min="6" max="6" width="21.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4591,24 +4571,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4616,436 +4590,147 @@
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
+      <c r="B2" s="3">
+        <v>3.0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.8</v>
       </c>
       <c r="E2" s="3">
-        <v>3.0</v>
+        <v>0.2</v>
       </c>
       <c r="F2" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
+      <c r="B3" s="3">
+        <v>3.0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10.0</v>
       </c>
       <c r="E3" s="3">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="F3" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1.1</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
+      <c r="B4" s="3">
+        <v>3.0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.8</v>
       </c>
       <c r="E4" s="3">
-        <v>5.0</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
+      <c r="B5" s="3">
+        <v>4.0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10.0</v>
       </c>
       <c r="E5" s="3">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
+      <c r="B6" s="3">
+        <v>4.0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.4</v>
       </c>
       <c r="E6" s="3">
-        <v>7.0</v>
+        <v>1.6</v>
       </c>
       <c r="F6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
+      <c r="B7" s="3">
+        <v>4.0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.4</v>
       </c>
       <c r="E7" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F7" s="3">
         <v>3.0</v>
       </c>
-      <c r="F7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1.0</v>
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6.0</v>
-      </c>
       <c r="F10" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="I19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="H20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="6">
-        <f>MIN(H8:H16)</f>
-        <v>0.9</v>
-      </c>
-      <c r="J20" s="6">
-        <f>QUARTILE(H8:H16, 1)</f>
-        <v>0.9</v>
-      </c>
-      <c r="K20" s="6">
-        <f>MEDIAN(H8:H16)</f>
-        <v>0.9</v>
-      </c>
-      <c r="L20" s="6">
-        <f>QUARTILE(H8:H16, 3)</f>
-        <v>1</v>
-      </c>
-      <c r="M20" s="6">
-        <f>MAX(H8:H16)</f>
-        <v>1.3</v>
+        <v>4.5</v>
+      </c>
+      <c r="G10" s="6">
+        <f>MEDIAN(F2, F7)</f>
+        <v>1.75</v>
+      </c>
+      <c r="H10" s="6">
+        <f>STDEV(F2, F7)</f>
+        <v>1.767766953</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$E$1:$E$1001"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -5059,176 +4744,390 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="18.5"/>
-    <col customWidth="1" min="3" max="3" width="24.63"/>
-    <col customWidth="1" min="4" max="4" width="28.63"/>
-    <col customWidth="1" min="5" max="5" width="27.5"/>
-    <col customWidth="1" min="6" max="6" width="21.13"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>22</v>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
+      <c r="A2" s="3">
+        <v>3.0</v>
       </c>
       <c r="B2" s="3">
+        <v>73.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>281.0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>8.85714285714285</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.426501505595148</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>148.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.375</v>
+      </c>
+      <c r="H3" s="3">
+        <v>233.625</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5.6875</v>
+      </c>
+      <c r="J3" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.425752819871042</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>233.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.75</v>
+      </c>
+      <c r="H4" s="3">
+        <v>267.0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5.75</v>
+      </c>
+      <c r="J4" s="3">
+        <v>8.75</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.40225793797636</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>317.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.14285714285714</v>
+      </c>
+      <c r="H5" s="3">
+        <v>300.285714285714</v>
+      </c>
+      <c r="I5" s="3">
+        <v>6.6734693877551</v>
+      </c>
+      <c r="J5" s="3">
+        <v>9.57142857142857</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.472689212327667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>403.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.28571428571428</v>
+      </c>
+      <c r="H6" s="3">
+        <v>303.571428571428</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6.22448979591836</v>
+      </c>
+      <c r="J6" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.471265605460536</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
         <v>3.0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="B7" s="3">
+        <v>483.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
         <v>4.0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="H7" s="3">
+        <v>290.571428571428</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6.3469387755102</v>
+      </c>
+      <c r="J7" s="3">
+        <v>9.28571428571428</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.468956292918089</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
         <v>4.0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4.4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
+        <v>560.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.85714285714285</v>
+      </c>
+      <c r="H8" s="3">
+        <v>279.714285714285</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5.85714285714285</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8.42857142857142</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.425905992616018</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>647.0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.875</v>
+      </c>
+      <c r="H9" s="3">
+        <v>275.0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6.28125</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.464494920865672</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>728.0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
         <v>4.0</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4.4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G10" s="6">
-        <f>MEDIAN(F2, F7)</f>
-        <v>1.75</v>
-      </c>
-      <c r="H10" s="6">
-        <f>STDEV(F2, F7)</f>
-        <v>1.767766953</v>
+      <c r="H10" s="3">
+        <v>315.857142857142</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6.06122448979591</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.499947760648249</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>802.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3.71428571428571</v>
+      </c>
+      <c r="H11" s="3">
+        <v>269.857142857142</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5.0204081632653</v>
+      </c>
+      <c r="J11" s="3">
+        <v>7.71428571428571</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.395656158843805</v>
       </c>
     </row>
   </sheetData>
